--- a/Base-宽表/用户标签整理/用户标签表依赖的基础数据表.xlsx
+++ b/Base-宽表/用户标签整理/用户标签表依赖的基础数据表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
   <si>
     <t>数据表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,17 @@
   </si>
   <si>
     <t>f_credit_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_user_360ds_order_info</t>
+  </si>
+  <si>
+    <t>gabase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近360天下单次数、平均下单间隔、(订单/平均订单/最高单笔订单)金额、下单(频道/E店/门店/sku)数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1058,7 +1069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1072,248 +1083,262 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
+      <c r="C24" t="s">
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" t="s">
-        <v>55</v>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
         <v>81</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A33" r:id="rId1" tooltip="s_freq_search_wday_col" display="javascript:void(0)"/>
+    <hyperlink ref="A34" r:id="rId1" tooltip="s_freq_search_wday_col" display="javascript:void(0)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
